--- a/Parts/Machining BOM.xlsx
+++ b/Parts/Machining BOM.xlsx
@@ -5,22 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roota\Desktop\Sewing Machine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Sewing-Machine\Parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80EBE77-A512-4F68-8A37-FA066C847669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7F0454-F133-4FCA-85CB-FB4CD6187A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly Drawing v6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t>Qty</t>
   </si>
@@ -28,9 +39,6 @@
     <t>Part Number</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -185,6 +193,18 @@
   </si>
   <si>
     <t>Stainless Steel AISI 301</t>
+  </si>
+  <si>
+    <t>Rock Shaft Shank</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Left</t>
   </si>
 </sst>
 </file>
@@ -674,8 +694,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -735,16 +756,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:D48" totalsRowShown="0">
-  <autoFilter ref="A2:D48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D48">
-    <sortCondition ref="B2:B48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:D50" totalsRowCount="1">
+  <autoFilter ref="A2:D49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D49">
+    <sortCondition ref="B2:B49"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Qty"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Number"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Material"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Description"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Material" totalsRowLabel="Total"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Price" totalsRowFunction="custom" dataCellStyle="Neutral">
+      <totalsRowFormula>SUM(Table1[Price])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1047,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D48"/>
+  <dimension ref="A2:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,10 +1092,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,10 +1103,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>2800</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,10 +1117,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>950</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,10 +1131,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3800</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,10 +1145,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>9000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1124,10 +1159,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>1800</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1135,10 +1173,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2400</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1146,21 +1187,25 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>950</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1168,21 +1213,25 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="1">
+        <v>841.43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1190,10 +1239,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>2400</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1201,10 +1253,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D14" s="1">
+        <v>363.51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,365 +1267,444 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="1">
+        <v>847.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
       <c r="C21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1">
+        <v>988.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D26">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1553.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1">
+        <v>430.37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="1">
+        <v>988.24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="1">
+        <v>422.43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
         <v>37</v>
       </c>
-      <c r="C45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
       <c r="C47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1578,7 +1712,40 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <f>SUM(Table1[Price])</f>
+        <v>49534.909999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51">
+        <f>50000-Table1[[#Totals],[Price]]</f>
+        <v>465.09000000000378</v>
       </c>
     </row>
   </sheetData>
